--- a/AutoOpenXmlTest/Resources/input.xlsx
+++ b/AutoOpenXmlTest/Resources/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruan.fachini\source\repos\ObjectToExcelFile\AutoOpenXmlTest\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projets - Pessoais\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914E9598-12EA-418F-B1B8-D9922D3AC0B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E293D-950F-4865-AF18-723C58FD3B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -40,14 +40,23 @@
   </si>
   <si>
     <t>Ruan</t>
+  </si>
+  <si>
+    <t>Fabricio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -73,11 +82,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -406,7 +417,7 @@
     <col min="4" max="4" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +431,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -433,10 +444,21 @@
       <c r="D2" s="3">
         <v>33478</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>

--- a/AutoOpenXmlTest/Resources/input.xlsx
+++ b/AutoOpenXmlTest/Resources/input.xlsx
@@ -2,30 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projets - Pessoais\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E293D-950F-4865-AF18-723C58FD3B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7CD9E-FCF2-4316-BD19-6F034A1FFDB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Ativo</t>
+  </si>
   <si>
     <t>Nome</t>
   </si>
@@ -51,23 +49,30 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,15 +85,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -117,44 +123,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,32 +187,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,24 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -262,206 +232,230 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="11.5703125" style="2"/>
-    <col min="4" max="4" width="11.5703125" style="3"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12233.45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3">
-        <v>33478</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="5"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutoOpenXmlTest/Resources/input.xlsx
+++ b/AutoOpenXmlTest/Resources/input.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projets - Pessoais\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF7CD9E-FCF2-4316-BD19-6F034A1FFDB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB109A3-8321-49C3-9C69-101A293E0DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
+    <sheet name="DateTimeProperty" sheetId="5" r:id="rId1"/>
+    <sheet name="DateTimeNullableProperty" sheetId="4" r:id="rId2"/>
+    <sheet name="BoolNullableProperty" sheetId="2" r:id="rId3"/>
+    <sheet name="BoolProperty" sheetId="3" r:id="rId4"/>
+    <sheet name="DecimalNullableProperty" sheetId="6" r:id="rId5"/>
+    <sheet name="DecimalProperty" sheetId="7" r:id="rId6"/>
+    <sheet name="ModelIntNullableProperty" sheetId="8" r:id="rId7"/>
+    <sheet name="IntProperty" sheetId="9" r:id="rId8"/>
+    <sheet name="StringProperty" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="7">
   <si>
     <t>Ativo</t>
   </si>
@@ -87,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -95,6 +103,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B627EF7-54F6-4DAF-8983-5EB300419823}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,4 +467,524 @@
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D0D30-24DA-4C11-9B96-AC2F8A17B9EC}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A3162F-E2D0-4DEE-95DF-B81FDF5B8A81}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4B40F5-D1AE-4B57-8726-83CBF1734B94}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2865B504-4FB8-42F9-9B12-D5425DCB9606}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484994A-3F91-426E-92A4-9D525C7C30EF}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D62167-30BA-4903-AA5C-D598EDDFE1F2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8459388-3215-41C8-8DC7-8291FC56FEC2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AutoOpenXmlTest/Resources/input.xlsx
+++ b/AutoOpenXmlTest/Resources/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projets - Pessoais\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB109A3-8321-49C3-9C69-101A293E0DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826A82F-3E6A-4DA9-AE18-4B2BA5F26106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="909" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateTimeProperty" sheetId="5" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,9 +458,12 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>44197</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="6"/>
       <c r="I10" s="6"/>
     </row>
   </sheetData>
@@ -604,7 +607,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,9 @@
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" s="6"/>
@@ -734,7 +740,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +787,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>125.24</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
     </row>
@@ -863,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D62167-30BA-4903-AA5C-D598EDDFE1F2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +920,9 @@
         <v>6</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
       <c r="D3" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8459388-3215-41C8-8DC7-8291FC56FEC2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/AutoOpenXmlTest/Resources/input.xlsx
+++ b/AutoOpenXmlTest/Resources/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\projets - Pessoais\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauricio.andre\source\private\AutoOpenXML\AutoOpenXmlTest\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826A82F-3E6A-4DA9-AE18-4B2BA5F26106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93605C09-E412-4E40-BD05-F26B5D517BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="909" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateTimeProperty" sheetId="5" r:id="rId1"/>
@@ -21,14 +21,27 @@
     <sheet name="DecimalProperty" sheetId="7" r:id="rId6"/>
     <sheet name="ModelIntNullableProperty" sheetId="8" r:id="rId7"/>
     <sheet name="IntProperty" sheetId="9" r:id="rId8"/>
-    <sheet name="StringProperty" sheetId="10" r:id="rId9"/>
+    <sheet name="FormulaProperty" sheetId="11" r:id="rId9"/>
+    <sheet name="StringProperty" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
   <si>
     <t>Ativo</t>
   </si>
@@ -49,6 +62,15 @@
   </si>
   <si>
     <t>Fabricio</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>Valor2</t>
   </si>
 </sst>
 </file>
@@ -472,6 +494,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8459388-3215-41C8-8DC7-8291FC56FEC2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>12233.45</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5">
+        <v>33478</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668D0D30-24DA-4C11-9B96-AC2F8A17B9EC}">
   <dimension ref="A1:I10"/>
@@ -871,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D62167-30BA-4903-AA5C-D598EDDFE1F2}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -935,66 +1022,57 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8459388-3215-41C8-8DC7-8291FC56FEC2}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE8696C-C43D-4A35-906A-9249D135271D}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>12233.45</v>
-      </c>
-      <c r="C2" s="4">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5">
-        <v>33478</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
-        <v>123</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>SUM(A2:A3)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>F2+G3</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>